--- a/biology/Botanique/Phomopsis/Phomopsis.xlsx
+++ b/biology/Botanique/Phomopsis/Phomopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phomopsis est un genre de champignons ascomycètes de la famille des Diaporthaceae. La forme téléomorphe (sexuée) est Diaporthe.
 Ce genre comprend un millier d'espèces, dont de nombreux agents pathogènes des plantes.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (3 novembre 2014)[1] :
+          <t xml:space="preserve">Selon Catalogue of Life                                   (3 novembre 2014) :
 Phomopsis abdita
 Phomopsis abrotani
 Phomopsis abutilonis
@@ -1304,7 +1318,7 @@
 Phomopsis zelkovae
 Phomopsis ziziphicola
 Phomopsis ziziphina
-Selon Index Fungorum                                      (3 novembre 2014)[2] :
+Selon Index Fungorum                                      (3 novembre 2014) :
 Phomopsis abdita (Sacc.) Traverso 1906
 Phomopsis abietina (R. Hartig) Grove 1918
 Phomopsis abietina (R. Hartig) Höhn. 1928
@@ -1484,7 +1498,7 @@
 Phomopsis cinnamomi S.M. Lin &amp; P.K. Chi 1994
 Phomopsis cinnamomicola Z.D. Jiang, M.M. Xiang &amp; P.K. Chi 2003
 Phomopsis cirsii Grove 1935
-Selon NCBI  (3 novembre 2014)[3] :
+Selon NCBI  (3 novembre 2014) :
 Phomopsis abdita
 Phomopsis amaranthicola
 Phomopsis asparagi
